--- a/src/main/resources/excel/PushWordResource.xlsx
+++ b/src/main/resources/excel/PushWordResource.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FEF578-0E67-4FAE-A766-6073F7FF67FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>word</t>
   </si>
@@ -74,19 +80,17 @@
   </si>
   <si>
     <t>午后拉升</t>
+  </si>
+  <si>
+    <t>投资日历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,18 +106,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -121,326 +116,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -448,253 +137,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,62 +149,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1015,31 +421,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.87890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.76171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.64453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +468,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -1074,7 +480,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +495,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +507,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1116,7 +522,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +537,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +552,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1161,7 +567,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1176,7 +582,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -1188,7 +597,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
@@ -1197,7 +606,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="3:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
@@ -1206,7 +615,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
@@ -1215,7 +624,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
@@ -1224,7 +633,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
@@ -1233,7 +642,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
@@ -1242,7 +651,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
@@ -1251,7 +660,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
@@ -1260,7 +669,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
@@ -1269,7 +678,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
@@ -1278,7 +687,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
@@ -1287,7 +696,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
@@ -1296,7 +705,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
@@ -1305,7 +714,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
@@ -1314,7 +723,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
@@ -1323,7 +732,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
@@ -1332,7 +741,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
@@ -1341,7 +750,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
@@ -1350,7 +759,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="3:10">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
@@ -1359,7 +768,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="3:10">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
@@ -1368,7 +777,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
@@ -1377,7 +786,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
@@ -1386,7 +795,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
@@ -1395,7 +804,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="3:10">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
@@ -1404,7 +813,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
@@ -1413,7 +822,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="3:10">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
@@ -1422,7 +831,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="3:10">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
@@ -1431,7 +840,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="3:10">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
@@ -1440,7 +849,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="3:10">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
@@ -1449,7 +858,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="3:10">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
@@ -1458,7 +867,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="3:10">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
@@ -1467,7 +876,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="3:10">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
@@ -1476,7 +885,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="3:10">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
@@ -1485,7 +894,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="3:10">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="F46" s="1"/>
@@ -1494,7 +903,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="3:10">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="1"/>
@@ -1503,7 +912,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="3:10">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="F48" s="1"/>
@@ -1512,7 +921,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="3:10">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="F49" s="1"/>
@@ -1521,7 +930,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="3:10">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="F50" s="1"/>
@@ -1530,7 +939,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="3:10">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="F51" s="1"/>
@@ -1539,7 +948,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="3:10">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="F52" s="1"/>
@@ -1548,7 +957,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="3:10">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="F53" s="1"/>
@@ -1557,7 +966,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="3:10">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="F54" s="1"/>
@@ -1566,7 +975,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="3:10">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="F55" s="1"/>
@@ -1575,7 +984,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="3:10">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="F56" s="1"/>
@@ -1584,7 +993,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="3:10">
+    <row r="57" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="F57" s="1"/>
@@ -1593,7 +1002,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="3:10">
+    <row r="58" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
@@ -1602,7 +1011,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="3:10">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
@@ -1611,7 +1020,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="3:10">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
@@ -1620,7 +1029,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="3:10">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="F61" s="1"/>
@@ -1629,7 +1038,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="3:10">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="F62" s="1"/>
@@ -1638,7 +1047,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="3:10">
+    <row r="63" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="F63" s="1"/>
@@ -1647,7 +1056,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="3:10">
+    <row r="64" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>
@@ -1656,7 +1065,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="3:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="F65" s="1"/>
@@ -1665,7 +1074,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="3:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
@@ -1674,7 +1083,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="3:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="F67" s="1"/>
@@ -1683,18 +1092,18 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>